--- a/tests/data/19880209/19880209_target_reorder.xlsx
+++ b/tests/data/19880209/19880209_target_reorder.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="870" yWindow="2445" windowWidth="16410" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8625" yWindow="2505" windowWidth="16410" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="target_0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="target_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="target_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="target_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="target_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="target_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="target_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="target_0" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="no_csv" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -45,12 +45,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF7F"/>
+        <fgColor rgb="FFFFFF7F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFBF7F"/>
+        <fgColor rgb="FFFFBF7F"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,6 +420,186 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFFF7F"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date_A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date_B</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Processing_Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>32181.99998842593</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>32182.00001157407</v>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>2s</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>[{"date_a": "1988-02-08T23:59:59", "date_b": "1988-02-09T00:00:01", "processing_time": "2s", "random_key": true}]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF7F"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_A</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date_B</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Processing_Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>32181.99930555556</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>32182</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>4s</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[{"date_a": "1988-02-08T23:59:58", "date_b": "1988-02-09T00:00:02", "processing_time": "4s", "random_key": null}]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF7F"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_A</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date_B</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Processing_Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>32181.99930555556</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>32182</v>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>6s</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>[{"date_a": "1988-02-08T23:59:57", "date_b": "1988-02-09T00:00:03", "processing_time": "6s", "random_key": true}]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -486,186 +666,6 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>INVALID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF7F"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date_A</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date_B</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Processing_Time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>JSON</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>32181.99998842593</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>32182.00001157407</v>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>2s</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>[{"date_a": "1988-02-08T23:59:59", "date_b": "1988-02-09T00:00:01", "processing_time": "2s", "random_key": true}]</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF7F"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date_A</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Date_B</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Processing_Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>JSON</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>32181.99930555556</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>32182</v>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>4s</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[{"date_a": "1988-02-08T23:59:58", "date_b": "1988-02-09T00:00:02", "processing_time": "4s", "random_key": null}]</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF7F"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date_A</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Date_B</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Processing_Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>JSON</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>32181.99930555556</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>32182</v>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>6s</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>[{"date_a": "1988-02-08T23:59:57", "date_b": "1988-02-09T00:00:03", "processing_time": "6s", "random_key": true}]</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No CSV file found.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>